--- a/results/numbers/enronEmail.xlsx
+++ b/results/numbers/enronEmail.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27022"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13880" windowHeight="17540" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="0" windowWidth="13880" windowHeight="17540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="31">
   <si>
     <t>Time</t>
   </si>
@@ -107,6 +107,12 @@
   <si>
     <t>N/A</t>
   </si>
+  <si>
+    <t>Variants</t>
+  </si>
+  <si>
+    <t>UniqueVariants</t>
+  </si>
 </sst>
 </file>
 
@@ -161,8 +167,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="109">
+  <cellStyleXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -277,7 +287,7 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="109">
+  <cellStyles count="113">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -332,6 +342,8 @@
     <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -386,6 +398,8 @@
     <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -715,15 +729,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H131"/>
+  <dimension ref="A1:L131"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28:H53"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -733,20 +747,32 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" t="s">
+      <c r="D1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
       <c r="H1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="K1" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2">
         <v>8.0500000000000007</v>
       </c>
@@ -756,20 +782,32 @@
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
       <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
         <v>50.66</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>6</v>
       </c>
-      <c r="H2">
+      <c r="J2">
         <v>330745</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3">
         <v>1.92</v>
       </c>
@@ -779,20 +817,32 @@
       <c r="C3" t="s">
         <v>3</v>
       </c>
+      <c r="D3">
+        <v>2</v>
+      </c>
       <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="G3">
         <v>21.61</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>6</v>
       </c>
-      <c r="H3">
+      <c r="J3">
         <v>50093</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4">
         <v>9.26</v>
       </c>
@@ -802,20 +852,32 @@
       <c r="C4" t="s">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
       <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4">
         <v>92.4</v>
       </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
         <v>15</v>
       </c>
-      <c r="G4" t="s">
+      <c r="I4" t="s">
         <v>6</v>
       </c>
-      <c r="H4">
+      <c r="J4">
         <v>330745</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="K4">
+        <v>5</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5">
         <v>8.48</v>
       </c>
@@ -825,20 +887,32 @@
       <c r="C5" t="s">
         <v>3</v>
       </c>
+      <c r="D5">
+        <v>5</v>
+      </c>
       <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="G5">
         <v>93</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>12</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>6</v>
       </c>
-      <c r="H5">
+      <c r="J5">
         <v>330745</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="K5">
+        <v>5</v>
+      </c>
+      <c r="L5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
       <c r="A6">
         <v>1.26</v>
       </c>
@@ -848,20 +922,32 @@
       <c r="C6" t="s">
         <v>3</v>
       </c>
+      <c r="D6">
+        <v>2</v>
+      </c>
       <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="G6">
         <v>3.2</v>
       </c>
-      <c r="F6" t="s">
+      <c r="H6" t="s">
         <v>16</v>
       </c>
-      <c r="G6" t="s">
+      <c r="I6" t="s">
         <v>6</v>
       </c>
-      <c r="H6">
+      <c r="J6">
         <v>5419</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
       <c r="A7">
         <v>2.14</v>
       </c>
@@ -871,20 +957,32 @@
       <c r="C7" t="s">
         <v>3</v>
       </c>
+      <c r="D7">
+        <v>2</v>
+      </c>
       <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="G7">
         <v>20.350000000000001</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>17</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>6</v>
       </c>
-      <c r="H7">
+      <c r="J7">
         <v>55653</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
       <c r="A8">
         <v>1.7</v>
       </c>
@@ -894,20 +992,32 @@
       <c r="C8" t="s">
         <v>3</v>
       </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
       <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>18.440000000000001</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>18</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>6</v>
       </c>
-      <c r="H8">
+      <c r="J8">
         <v>44473</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
       <c r="A9">
         <v>2.39</v>
       </c>
@@ -917,20 +1027,32 @@
       <c r="C9" t="s">
         <v>3</v>
       </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
       <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="G9">
         <v>20.68</v>
       </c>
-      <c r="F9" t="s">
+      <c r="H9" t="s">
         <v>13</v>
       </c>
-      <c r="G9" t="s">
+      <c r="I9" t="s">
         <v>6</v>
       </c>
-      <c r="H9">
+      <c r="J9">
         <v>55653</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
       <c r="A10">
         <v>2.74</v>
       </c>
@@ -940,20 +1062,32 @@
       <c r="C10" t="s">
         <v>3</v>
       </c>
+      <c r="D10">
+        <v>2</v>
+      </c>
       <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="G10">
         <v>22.2</v>
       </c>
-      <c r="F10" t="s">
+      <c r="H10" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="I10" t="s">
         <v>6</v>
       </c>
-      <c r="H10">
+      <c r="J10">
         <v>50093</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
       <c r="A11">
         <v>28.62</v>
       </c>
@@ -963,20 +1097,32 @@
       <c r="C11" t="s">
         <v>3</v>
       </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
       <c r="E11">
+        <v>4</v>
+      </c>
+      <c r="G11">
         <v>100.2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11" t="s">
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11" t="s">
         <v>6</v>
       </c>
-      <c r="H11">
+      <c r="J11">
         <v>254097</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="K11">
+        <v>5</v>
+      </c>
+      <c r="L11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
       <c r="A12">
         <v>13.84</v>
       </c>
@@ -986,20 +1132,32 @@
       <c r="C12" t="s">
         <v>3</v>
       </c>
+      <c r="D12">
+        <v>5</v>
+      </c>
       <c r="E12">
+        <v>3</v>
+      </c>
+      <c r="G12">
         <v>67.8</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>6</v>
       </c>
-      <c r="H12">
+      <c r="J12">
         <v>366973</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="K12">
+        <v>5</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
       <c r="A13">
         <v>19.12</v>
       </c>
@@ -1009,20 +1167,32 @@
       <c r="C13" t="s">
         <v>3</v>
       </c>
+      <c r="D13">
+        <v>5</v>
+      </c>
       <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="G13">
         <v>60.6</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>20</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>6</v>
       </c>
-      <c r="H13">
+      <c r="J13">
         <v>207533</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="K13">
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
       <c r="A14">
         <v>17.829999999999998</v>
       </c>
@@ -1032,20 +1202,32 @@
       <c r="C14" t="s">
         <v>3</v>
       </c>
+      <c r="D14">
+        <v>5</v>
+      </c>
       <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="G14">
         <v>57.92</v>
       </c>
-      <c r="F14">
-        <v>3</v>
-      </c>
-      <c r="G14" t="s">
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14" t="s">
         <v>6</v>
       </c>
-      <c r="H14">
+      <c r="J14">
         <v>203863</v>
       </c>
-    </row>
-    <row r="15" spans="1:8">
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
       <c r="A15">
         <v>21.82</v>
       </c>
@@ -1055,20 +1237,32 @@
       <c r="C15" t="s">
         <v>3</v>
       </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
       <c r="E15">
+        <v>4</v>
+      </c>
+      <c r="G15">
         <v>85.8</v>
       </c>
-      <c r="F15" t="s">
+      <c r="H15" t="s">
         <v>22</v>
       </c>
-      <c r="G15" t="s">
+      <c r="I15" t="s">
         <v>6</v>
       </c>
-      <c r="H15">
+      <c r="J15">
         <v>285178</v>
       </c>
-    </row>
-    <row r="16" spans="1:8">
+      <c r="K15">
+        <v>5</v>
+      </c>
+      <c r="L15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
       <c r="A16">
         <v>16.899999999999999</v>
       </c>
@@ -1078,20 +1272,32 @@
       <c r="C16" t="s">
         <v>3</v>
       </c>
+      <c r="D16">
+        <v>5</v>
+      </c>
       <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="G16">
         <v>54.78</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>23</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>6</v>
       </c>
-      <c r="H16">
+      <c r="J16">
         <v>229409</v>
       </c>
-    </row>
-    <row r="17" spans="1:8">
+      <c r="K16">
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
       <c r="A17">
         <v>19.59</v>
       </c>
@@ -1101,20 +1307,32 @@
       <c r="C17" t="s">
         <v>3</v>
       </c>
+      <c r="D17">
+        <v>5</v>
+      </c>
       <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="G17">
         <v>76.2</v>
       </c>
-      <c r="F17">
-        <v>5</v>
-      </c>
-      <c r="G17" t="s">
+      <c r="H17">
+        <v>5</v>
+      </c>
+      <c r="I17" t="s">
         <v>6</v>
       </c>
-      <c r="H17">
+      <c r="J17">
         <v>242917</v>
       </c>
-    </row>
-    <row r="18" spans="1:8">
+      <c r="K17">
+        <v>5</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
       <c r="A18">
         <v>24.59</v>
       </c>
@@ -1124,20 +1342,32 @@
       <c r="C18" t="s">
         <v>3</v>
       </c>
+      <c r="D18">
+        <v>5</v>
+      </c>
       <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="G18">
         <v>66.599999999999994</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>24</v>
       </c>
-      <c r="G18" t="s">
+      <c r="I18" t="s">
         <v>6</v>
       </c>
-      <c r="H18">
+      <c r="J18">
         <v>190656</v>
       </c>
-    </row>
-    <row r="19" spans="1:8">
+      <c r="K18">
+        <v>5</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
       <c r="A19">
         <v>25.85</v>
       </c>
@@ -1147,20 +1377,32 @@
       <c r="C19" t="s">
         <v>3</v>
       </c>
+      <c r="D19">
+        <v>5</v>
+      </c>
       <c r="E19">
+        <v>4</v>
+      </c>
+      <c r="G19">
         <v>57.23</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>25</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>6</v>
       </c>
-      <c r="H19">
+      <c r="J19">
         <v>162831</v>
       </c>
-    </row>
-    <row r="20" spans="1:8">
+      <c r="K19">
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
       <c r="A20">
         <v>22.78</v>
       </c>
@@ -1170,20 +1412,32 @@
       <c r="C20" t="s">
         <v>3</v>
       </c>
+      <c r="D20">
+        <v>5</v>
+      </c>
       <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="G20">
         <v>61.8</v>
       </c>
-      <c r="F20">
+      <c r="H20">
         <v>7</v>
       </c>
-      <c r="G20" t="s">
+      <c r="I20" t="s">
         <v>6</v>
       </c>
-      <c r="H20">
+      <c r="J20">
         <v>223390</v>
       </c>
-    </row>
-    <row r="21" spans="1:8">
+      <c r="K20">
+        <v>5</v>
+      </c>
+      <c r="L20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
       <c r="A21">
         <v>24.88</v>
       </c>
@@ -1193,20 +1447,32 @@
       <c r="C21" t="s">
         <v>3</v>
       </c>
+      <c r="D21">
+        <v>5</v>
+      </c>
       <c r="E21">
+        <v>4</v>
+      </c>
+      <c r="G21">
         <v>60</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>26</v>
       </c>
-      <c r="G21" t="s">
+      <c r="I21" t="s">
         <v>6</v>
       </c>
-      <c r="H21">
+      <c r="J21">
         <v>201806</v>
       </c>
-    </row>
-    <row r="22" spans="1:8">
+      <c r="K21">
+        <v>5</v>
+      </c>
+      <c r="L21">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
       <c r="A22">
         <v>28.38</v>
       </c>
@@ -1216,20 +1482,32 @@
       <c r="C22" t="s">
         <v>3</v>
       </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
       <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="G22">
         <v>66</v>
       </c>
-      <c r="F22" t="s">
+      <c r="H22" t="s">
         <v>27</v>
       </c>
-      <c r="G22" t="s">
+      <c r="I22" t="s">
         <v>6</v>
       </c>
-      <c r="H22">
+      <c r="J22">
         <v>176712</v>
       </c>
-    </row>
-    <row r="23" spans="1:8">
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
       <c r="A23">
         <v>0.89</v>
       </c>
@@ -1239,20 +1517,32 @@
       <c r="C23" t="s">
         <v>3</v>
       </c>
+      <c r="D23">
+        <v>2</v>
+      </c>
       <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="G23">
         <v>0.87</v>
       </c>
-      <c r="F23">
+      <c r="H23">
         <v>9</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>6</v>
       </c>
-      <c r="H23">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+      <c r="J23">
+        <v>3</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
       <c r="A24">
         <v>28.43</v>
       </c>
@@ -1262,20 +1552,32 @@
       <c r="C24" t="s">
         <v>3</v>
       </c>
+      <c r="D24">
+        <v>5</v>
+      </c>
       <c r="E24">
+        <v>4</v>
+      </c>
+      <c r="G24">
         <v>73.8</v>
       </c>
-      <c r="F24">
+      <c r="H24">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="I24" t="s">
         <v>6</v>
       </c>
-      <c r="H24">
+      <c r="J24">
         <v>192445</v>
       </c>
-    </row>
-    <row r="25" spans="1:8">
+      <c r="K24">
+        <v>5</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
       <c r="A25">
         <v>17.36</v>
       </c>
@@ -1285,20 +1587,32 @@
       <c r="C25" t="s">
         <v>3</v>
       </c>
+      <c r="D25">
+        <v>5</v>
+      </c>
       <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="G25">
         <v>48.79</v>
       </c>
-      <c r="F25">
+      <c r="H25">
         <v>11</v>
       </c>
-      <c r="G25" t="s">
+      <c r="I25" t="s">
         <v>6</v>
       </c>
-      <c r="H25">
+      <c r="J25">
         <v>198447</v>
       </c>
-    </row>
-    <row r="26" spans="1:8">
+      <c r="K25">
+        <v>5</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
       <c r="A26">
         <v>29.82</v>
       </c>
@@ -1308,20 +1622,32 @@
       <c r="C26" t="s">
         <v>3</v>
       </c>
+      <c r="D26">
+        <v>5</v>
+      </c>
       <c r="E26">
+        <v>4</v>
+      </c>
+      <c r="G26">
         <v>74.400000000000006</v>
       </c>
-      <c r="F26">
+      <c r="H26">
         <v>12</v>
       </c>
-      <c r="G26" t="s">
+      <c r="I26" t="s">
         <v>6</v>
       </c>
-      <c r="H26">
+      <c r="J26">
         <v>192445</v>
       </c>
-    </row>
-    <row r="27" spans="1:8">
+      <c r="K26">
+        <v>5</v>
+      </c>
+      <c r="L26">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
       <c r="A27">
         <v>28.73</v>
       </c>
@@ -1331,20 +1657,32 @@
       <c r="C27" t="s">
         <v>3</v>
       </c>
+      <c r="D27">
+        <v>5</v>
+      </c>
       <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="G27">
         <v>73.8</v>
       </c>
-      <c r="F27">
+      <c r="H27">
         <v>13</v>
       </c>
-      <c r="G27" t="s">
+      <c r="I27" t="s">
         <v>6</v>
       </c>
-      <c r="H27">
+      <c r="J27">
         <v>189665</v>
       </c>
-    </row>
-    <row r="28" spans="1:8">
+      <c r="K27">
+        <v>5</v>
+      </c>
+      <c r="L27">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
       <c r="A28">
         <v>1.66</v>
       </c>
@@ -1354,20 +1692,32 @@
       <c r="C28" t="s">
         <v>4</v>
       </c>
+      <c r="D28">
+        <v>5</v>
+      </c>
       <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="G28">
         <v>51.76</v>
       </c>
-      <c r="F28" t="s">
+      <c r="H28" t="s">
         <v>14</v>
       </c>
-      <c r="G28" t="s">
+      <c r="I28" t="s">
         <v>8</v>
       </c>
-      <c r="H28">
+      <c r="J28">
         <v>330745</v>
       </c>
-    </row>
-    <row r="29" spans="1:8">
+      <c r="K28">
+        <v>5</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
       <c r="A29">
         <v>1.34</v>
       </c>
@@ -1377,20 +1727,32 @@
       <c r="C29" t="s">
         <v>4</v>
       </c>
+      <c r="D29">
+        <v>2</v>
+      </c>
       <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="G29">
         <v>22.11</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>11</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>8</v>
       </c>
-      <c r="H29">
+      <c r="J29">
         <v>50093</v>
       </c>
-    </row>
-    <row r="30" spans="1:8">
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12">
       <c r="A30">
         <v>3.39</v>
       </c>
@@ -1400,20 +1762,32 @@
       <c r="C30" t="s">
         <v>4</v>
       </c>
+      <c r="D30">
+        <v>5</v>
+      </c>
       <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="G30">
         <v>93.6</v>
       </c>
-      <c r="F30" t="s">
+      <c r="H30" t="s">
         <v>15</v>
       </c>
-      <c r="G30" t="s">
+      <c r="I30" t="s">
         <v>8</v>
       </c>
-      <c r="H30">
+      <c r="J30">
         <v>330745</v>
       </c>
-    </row>
-    <row r="31" spans="1:8">
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12">
       <c r="A31">
         <v>3.27</v>
       </c>
@@ -1423,20 +1797,32 @@
       <c r="C31" t="s">
         <v>4</v>
       </c>
+      <c r="D31">
+        <v>5</v>
+      </c>
       <c r="E31">
+        <v>2</v>
+      </c>
+      <c r="G31">
         <v>92.4</v>
       </c>
-      <c r="F31" t="s">
+      <c r="H31" t="s">
         <v>12</v>
       </c>
-      <c r="G31" t="s">
+      <c r="I31" t="s">
         <v>8</v>
       </c>
-      <c r="H31">
+      <c r="J31">
         <v>330745</v>
       </c>
-    </row>
-    <row r="32" spans="1:8">
+      <c r="K31">
+        <v>5</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12">
       <c r="A32">
         <v>1.1100000000000001</v>
       </c>
@@ -1446,20 +1832,32 @@
       <c r="C32" t="s">
         <v>4</v>
       </c>
+      <c r="D32">
+        <v>2</v>
+      </c>
       <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="G32">
         <v>3.25</v>
       </c>
-      <c r="F32" t="s">
+      <c r="H32" t="s">
         <v>16</v>
       </c>
-      <c r="G32" t="s">
+      <c r="I32" t="s">
         <v>8</v>
       </c>
-      <c r="H32">
+      <c r="J32">
         <v>5419</v>
       </c>
-    </row>
-    <row r="33" spans="1:8">
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12">
       <c r="A33">
         <v>1.34</v>
       </c>
@@ -1469,20 +1867,32 @@
       <c r="C33" t="s">
         <v>4</v>
       </c>
+      <c r="D33">
+        <v>2</v>
+      </c>
       <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="G33">
         <v>20.28</v>
       </c>
-      <c r="F33" t="s">
+      <c r="H33" t="s">
         <v>17</v>
       </c>
-      <c r="G33" t="s">
+      <c r="I33" t="s">
         <v>8</v>
       </c>
-      <c r="H33">
+      <c r="J33">
         <v>55653</v>
       </c>
-    </row>
-    <row r="34" spans="1:8">
+      <c r="K33">
+        <v>2</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12">
       <c r="A34">
         <v>1.59</v>
       </c>
@@ -1492,20 +1902,32 @@
       <c r="C34" t="s">
         <v>4</v>
       </c>
+      <c r="D34">
+        <v>2</v>
+      </c>
       <c r="E34">
+        <v>1</v>
+      </c>
+      <c r="G34">
         <v>18.79</v>
       </c>
-      <c r="F34" t="s">
+      <c r="H34" t="s">
         <v>18</v>
       </c>
-      <c r="G34" t="s">
+      <c r="I34" t="s">
         <v>8</v>
       </c>
-      <c r="H34">
+      <c r="J34">
         <v>44473</v>
       </c>
-    </row>
-    <row r="35" spans="1:8">
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12">
       <c r="A35">
         <v>1.36</v>
       </c>
@@ -1515,20 +1937,32 @@
       <c r="C35" t="s">
         <v>4</v>
       </c>
+      <c r="D35">
+        <v>2</v>
+      </c>
       <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="G35">
         <v>20.32</v>
       </c>
-      <c r="F35" t="s">
+      <c r="H35" t="s">
         <v>13</v>
       </c>
-      <c r="G35" t="s">
+      <c r="I35" t="s">
         <v>8</v>
       </c>
-      <c r="H35">
+      <c r="J35">
         <v>55653</v>
       </c>
-    </row>
-    <row r="36" spans="1:8">
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12">
       <c r="A36">
         <v>1.53</v>
       </c>
@@ -1538,20 +1972,32 @@
       <c r="C36" t="s">
         <v>4</v>
       </c>
+      <c r="D36">
+        <v>2</v>
+      </c>
       <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="G36">
         <v>22.26</v>
       </c>
-      <c r="F36" t="s">
+      <c r="H36" t="s">
         <v>19</v>
       </c>
-      <c r="G36" t="s">
+      <c r="I36" t="s">
         <v>8</v>
       </c>
-      <c r="H36">
+      <c r="J36">
         <v>50093</v>
       </c>
-    </row>
-    <row r="37" spans="1:8">
+      <c r="K36">
+        <v>2</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12">
       <c r="A37">
         <v>27.57</v>
       </c>
@@ -1561,20 +2007,32 @@
       <c r="C37" t="s">
         <v>4</v>
       </c>
+      <c r="D37">
+        <v>5</v>
+      </c>
       <c r="E37">
+        <v>4</v>
+      </c>
+      <c r="G37">
         <v>98.4</v>
       </c>
-      <c r="F37">
-        <v>1</v>
-      </c>
-      <c r="G37" t="s">
+      <c r="H37">
+        <v>1</v>
+      </c>
+      <c r="I37" t="s">
         <v>8</v>
       </c>
-      <c r="H37">
+      <c r="J37">
         <v>254097</v>
       </c>
-    </row>
-    <row r="38" spans="1:8">
+      <c r="K37">
+        <v>5</v>
+      </c>
+      <c r="L37">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12">
       <c r="A38">
         <v>12.57</v>
       </c>
@@ -1584,20 +2042,32 @@
       <c r="C38" t="s">
         <v>4</v>
       </c>
+      <c r="D38">
+        <v>5</v>
+      </c>
       <c r="E38">
+        <v>3</v>
+      </c>
+      <c r="G38">
         <v>66</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="G38" t="s">
+      <c r="I38" t="s">
         <v>8</v>
       </c>
-      <c r="H38">
+      <c r="J38">
         <v>366973</v>
       </c>
-    </row>
-    <row r="39" spans="1:8">
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12">
       <c r="A39">
         <v>17.36</v>
       </c>
@@ -1607,20 +2077,32 @@
       <c r="C39" t="s">
         <v>4</v>
       </c>
+      <c r="D39">
+        <v>5</v>
+      </c>
       <c r="E39">
+        <v>3</v>
+      </c>
+      <c r="G39">
         <v>60</v>
       </c>
-      <c r="F39" t="s">
+      <c r="H39" t="s">
         <v>20</v>
       </c>
-      <c r="G39" t="s">
+      <c r="I39" t="s">
         <v>8</v>
       </c>
-      <c r="H39">
+      <c r="J39">
         <v>207533</v>
       </c>
-    </row>
-    <row r="40" spans="1:8">
+      <c r="K39">
+        <v>5</v>
+      </c>
+      <c r="L39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12">
       <c r="A40">
         <v>16.059999999999999</v>
       </c>
@@ -1630,20 +2112,32 @@
       <c r="C40" t="s">
         <v>4</v>
       </c>
+      <c r="D40">
+        <v>5</v>
+      </c>
       <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="G40">
         <v>57.37</v>
       </c>
-      <c r="F40">
-        <v>3</v>
-      </c>
-      <c r="G40" s="2" t="s">
+      <c r="H40">
+        <v>3</v>
+      </c>
+      <c r="I40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H40">
+      <c r="J40">
         <v>203863</v>
       </c>
-    </row>
-    <row r="41" spans="1:8">
+      <c r="K40">
+        <v>5</v>
+      </c>
+      <c r="L40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12">
       <c r="A41">
         <v>20.71</v>
       </c>
@@ -1653,20 +2147,32 @@
       <c r="C41" t="s">
         <v>4</v>
       </c>
+      <c r="D41">
+        <v>5</v>
+      </c>
       <c r="E41">
+        <v>4</v>
+      </c>
+      <c r="G41">
         <v>86.4</v>
       </c>
-      <c r="F41" t="s">
+      <c r="H41" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="2" t="s">
+      <c r="I41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H41">
+      <c r="J41">
         <v>285178</v>
       </c>
-    </row>
-    <row r="42" spans="1:8">
+      <c r="K41">
+        <v>5</v>
+      </c>
+      <c r="L41">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12">
       <c r="A42">
         <v>13.96</v>
       </c>
@@ -1676,20 +2182,32 @@
       <c r="C42" t="s">
         <v>4</v>
       </c>
+      <c r="D42">
+        <v>5</v>
+      </c>
       <c r="E42">
+        <v>3</v>
+      </c>
+      <c r="G42">
         <v>54.18</v>
       </c>
-      <c r="F42" t="s">
+      <c r="H42" t="s">
         <v>23</v>
       </c>
-      <c r="G42" s="2" t="s">
+      <c r="I42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H42">
+      <c r="J42">
         <v>229409</v>
       </c>
-    </row>
-    <row r="43" spans="1:8">
+      <c r="K42">
+        <v>5</v>
+      </c>
+      <c r="L42">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12">
       <c r="A43">
         <v>17.18</v>
       </c>
@@ -1699,20 +2217,32 @@
       <c r="C43" t="s">
         <v>4</v>
       </c>
+      <c r="D43">
+        <v>5</v>
+      </c>
       <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="G43">
         <v>75</v>
       </c>
-      <c r="F43">
-        <v>5</v>
-      </c>
-      <c r="G43" s="2" t="s">
+      <c r="H43">
+        <v>5</v>
+      </c>
+      <c r="I43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H43">
+      <c r="J43">
         <v>242917</v>
       </c>
-    </row>
-    <row r="44" spans="1:8">
+      <c r="K43">
+        <v>5</v>
+      </c>
+      <c r="L43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12">
       <c r="A44">
         <v>23.08</v>
       </c>
@@ -1722,20 +2252,32 @@
       <c r="C44" t="s">
         <v>4</v>
       </c>
+      <c r="D44">
+        <v>5</v>
+      </c>
       <c r="E44">
+        <v>3</v>
+      </c>
+      <c r="G44">
         <v>65.040000000000006</v>
       </c>
-      <c r="F44" t="s">
+      <c r="H44" t="s">
         <v>24</v>
       </c>
-      <c r="G44" s="2" t="s">
+      <c r="I44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H44">
+      <c r="J44">
         <v>190656</v>
       </c>
-    </row>
-    <row r="45" spans="1:8">
+      <c r="K44">
+        <v>5</v>
+      </c>
+      <c r="L44">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12">
       <c r="A45">
         <v>24.1</v>
       </c>
@@ -1745,20 +2287,32 @@
       <c r="C45" t="s">
         <v>4</v>
       </c>
+      <c r="D45">
+        <v>5</v>
+      </c>
       <c r="E45">
+        <v>4</v>
+      </c>
+      <c r="G45">
         <v>55.93</v>
       </c>
-      <c r="F45" t="s">
+      <c r="H45" t="s">
         <v>25</v>
       </c>
-      <c r="G45" s="2" t="s">
+      <c r="I45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H45">
+      <c r="J45">
         <v>162831</v>
       </c>
-    </row>
-    <row r="46" spans="1:8">
+      <c r="K45">
+        <v>5</v>
+      </c>
+      <c r="L45">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12">
       <c r="A46">
         <v>21.32</v>
       </c>
@@ -1768,20 +2322,32 @@
       <c r="C46" t="s">
         <v>4</v>
       </c>
+      <c r="D46">
+        <v>5</v>
+      </c>
       <c r="E46">
+        <v>4</v>
+      </c>
+      <c r="G46">
         <v>61.2</v>
       </c>
-      <c r="F46">
+      <c r="H46">
         <v>7</v>
       </c>
-      <c r="G46" s="2" t="s">
+      <c r="I46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H46">
+      <c r="J46">
         <v>223390</v>
       </c>
-    </row>
-    <row r="47" spans="1:8">
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12">
       <c r="A47">
         <v>23.76</v>
       </c>
@@ -1791,20 +2357,32 @@
       <c r="C47" t="s">
         <v>4</v>
       </c>
+      <c r="D47">
+        <v>5</v>
+      </c>
       <c r="E47">
+        <v>4</v>
+      </c>
+      <c r="G47">
         <v>60</v>
       </c>
-      <c r="F47" t="s">
+      <c r="H47" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="2" t="s">
+      <c r="I47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H47">
+      <c r="J47">
         <v>201806</v>
       </c>
-    </row>
-    <row r="48" spans="1:8">
+      <c r="K47">
+        <v>5</v>
+      </c>
+      <c r="L47">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12">
       <c r="A48">
         <v>26.34</v>
       </c>
@@ -1814,20 +2392,32 @@
       <c r="C48" t="s">
         <v>4</v>
       </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
       <c r="E48">
+        <v>4</v>
+      </c>
+      <c r="G48">
         <v>66.599999999999994</v>
       </c>
-      <c r="F48" t="s">
+      <c r="H48" t="s">
         <v>27</v>
       </c>
-      <c r="G48" s="2" t="s">
+      <c r="I48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H48">
+      <c r="J48">
         <v>176712</v>
       </c>
-    </row>
-    <row r="49" spans="1:8">
+      <c r="K48">
+        <v>5</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12">
       <c r="A49">
         <v>0.89</v>
       </c>
@@ -1837,20 +2427,32 @@
       <c r="C49" t="s">
         <v>4</v>
       </c>
+      <c r="D49">
+        <v>2</v>
+      </c>
       <c r="E49">
+        <v>1</v>
+      </c>
+      <c r="G49">
         <v>0.89</v>
       </c>
-      <c r="F49">
+      <c r="H49">
         <v>9</v>
       </c>
-      <c r="G49" s="2" t="s">
+      <c r="I49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H49">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>2</v>
+      </c>
+      <c r="L49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12">
       <c r="A50">
         <v>26.38</v>
       </c>
@@ -1860,20 +2462,32 @@
       <c r="C50" t="s">
         <v>4</v>
       </c>
+      <c r="D50">
+        <v>5</v>
+      </c>
       <c r="E50">
+        <v>4</v>
+      </c>
+      <c r="G50">
         <v>73.2</v>
       </c>
-      <c r="F50">
+      <c r="H50">
         <v>10</v>
       </c>
-      <c r="G50" s="2" t="s">
+      <c r="I50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H50">
+      <c r="J50">
         <v>192445</v>
       </c>
-    </row>
-    <row r="51" spans="1:8">
+      <c r="K50">
+        <v>5</v>
+      </c>
+      <c r="L50">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12">
       <c r="A51">
         <v>14.55</v>
       </c>
@@ -1883,20 +2497,32 @@
       <c r="C51" t="s">
         <v>4</v>
       </c>
+      <c r="D51">
+        <v>5</v>
+      </c>
       <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="G51">
         <v>47.95</v>
       </c>
-      <c r="F51">
+      <c r="H51">
         <v>11</v>
       </c>
-      <c r="G51" s="2" t="s">
+      <c r="I51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H51">
+      <c r="J51">
         <v>198447</v>
       </c>
-    </row>
-    <row r="52" spans="1:8">
+      <c r="K51">
+        <v>5</v>
+      </c>
+      <c r="L51">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12">
       <c r="A52">
         <v>27.94</v>
       </c>
@@ -1906,20 +2532,32 @@
       <c r="C52" t="s">
         <v>4</v>
       </c>
+      <c r="D52">
+        <v>5</v>
+      </c>
       <c r="E52">
+        <v>4</v>
+      </c>
+      <c r="G52">
         <v>74.400000000000006</v>
       </c>
-      <c r="F52">
+      <c r="H52">
         <v>12</v>
       </c>
-      <c r="G52" s="2" t="s">
+      <c r="I52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H52">
+      <c r="J52">
         <v>192445</v>
       </c>
-    </row>
-    <row r="53" spans="1:8">
+      <c r="K52">
+        <v>5</v>
+      </c>
+      <c r="L52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12">
       <c r="A53">
         <v>26.88</v>
       </c>
@@ -1929,20 +2567,32 @@
       <c r="C53" t="s">
         <v>4</v>
       </c>
+      <c r="D53">
+        <v>5</v>
+      </c>
       <c r="E53">
+        <v>4</v>
+      </c>
+      <c r="G53">
         <v>74.400000000000006</v>
       </c>
-      <c r="F53">
+      <c r="H53">
         <v>13</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="I53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H53">
+      <c r="J53">
         <v>189665</v>
       </c>
-    </row>
-    <row r="54" spans="1:8">
+      <c r="K53">
+        <v>5</v>
+      </c>
+      <c r="L53">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12">
       <c r="A54">
         <v>3.58</v>
       </c>
@@ -1952,8 +2602,14 @@
       <c r="C54" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="55" spans="1:8">
+      <c r="D54">
+        <v>5</v>
+      </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12">
       <c r="A55">
         <v>2.82</v>
       </c>
@@ -1963,8 +2619,14 @@
       <c r="C55" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="56" spans="1:8">
+      <c r="D55">
+        <v>2</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12">
       <c r="A56">
         <v>3.68</v>
       </c>
@@ -1974,8 +2636,14 @@
       <c r="C56" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="57" spans="1:8">
+      <c r="D56">
+        <v>5</v>
+      </c>
+      <c r="E56">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12">
       <c r="A57">
         <v>3.62</v>
       </c>
@@ -1985,8 +2653,14 @@
       <c r="C57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:8">
+      <c r="D57">
+        <v>5</v>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12">
       <c r="A58">
         <v>1.2</v>
       </c>
@@ -1996,8 +2670,14 @@
       <c r="C58" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="59" spans="1:8">
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12">
       <c r="A59">
         <v>1.39</v>
       </c>
@@ -2007,8 +2687,14 @@
       <c r="C59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:8">
+      <c r="D59">
+        <v>2</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12">
       <c r="A60">
         <v>1.36</v>
       </c>
@@ -2018,8 +2704,14 @@
       <c r="C60" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="61" spans="1:8">
+      <c r="D60">
+        <v>2</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12">
       <c r="A61">
         <v>1.48</v>
       </c>
@@ -2029,8 +2721,14 @@
       <c r="C61" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="62" spans="1:8">
+      <c r="D61">
+        <v>2</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12">
       <c r="A62">
         <v>1.71</v>
       </c>
@@ -2040,8 +2738,14 @@
       <c r="C62" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="63" spans="1:8">
+      <c r="D62">
+        <v>2</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12">
       <c r="A63">
         <v>27.01</v>
       </c>
@@ -2051,8 +2755,14 @@
       <c r="C63" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="64" spans="1:8">
+      <c r="D63">
+        <v>5</v>
+      </c>
+      <c r="E63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12">
       <c r="A64">
         <v>12.26</v>
       </c>
@@ -2062,8 +2772,14 @@
       <c r="C64" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="65" spans="1:3">
+      <c r="D64">
+        <v>5</v>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
       <c r="A65">
         <v>16.98</v>
       </c>
@@ -2073,8 +2789,14 @@
       <c r="C65" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="66" spans="1:3">
+      <c r="D65">
+        <v>5</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
       <c r="A66">
         <v>16.489999999999998</v>
       </c>
@@ -2084,8 +2806,14 @@
       <c r="C66" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="67" spans="1:3">
+      <c r="D66">
+        <v>5</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
       <c r="A67" t="s">
         <v>28</v>
       </c>
@@ -2095,8 +2823,14 @@
       <c r="C67" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="68" spans="1:3">
+      <c r="D67">
+        <v>5</v>
+      </c>
+      <c r="E67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
       <c r="A68">
         <v>15.09</v>
       </c>
@@ -2106,8 +2840,14 @@
       <c r="C68" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="69" spans="1:3">
+      <c r="D68">
+        <v>5</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
       <c r="A69">
         <v>16.82</v>
       </c>
@@ -2117,8 +2857,14 @@
       <c r="C69" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="70" spans="1:3">
+      <c r="D69">
+        <v>5</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
       <c r="A70">
         <v>22.8</v>
       </c>
@@ -2128,8 +2874,14 @@
       <c r="C70" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="71" spans="1:3">
+      <c r="D70">
+        <v>5</v>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
       <c r="A71" t="s">
         <v>28</v>
       </c>
@@ -2139,8 +2891,14 @@
       <c r="C71" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="72" spans="1:3">
+      <c r="D71">
+        <v>5</v>
+      </c>
+      <c r="E71">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
       <c r="A72" t="s">
         <v>28</v>
       </c>
@@ -2150,8 +2908,14 @@
       <c r="C72" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="73" spans="1:3">
+      <c r="D72">
+        <v>5</v>
+      </c>
+      <c r="E72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
       <c r="A73">
         <v>23.11</v>
       </c>
@@ -2161,8 +2925,14 @@
       <c r="C73" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
+      <c r="D73">
+        <v>5</v>
+      </c>
+      <c r="E73">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
       <c r="A74">
         <v>26.1</v>
       </c>
@@ -2172,8 +2942,14 @@
       <c r="C74" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
+      <c r="D74">
+        <v>5</v>
+      </c>
+      <c r="E74">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
       <c r="A75">
         <v>0.89</v>
       </c>
@@ -2183,8 +2959,14 @@
       <c r="C75" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3">
+      <c r="D75">
+        <v>2</v>
+      </c>
+      <c r="E75">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
       <c r="A76">
         <v>26.48</v>
       </c>
@@ -2194,8 +2976,14 @@
       <c r="C76" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3">
+      <c r="D76">
+        <v>5</v>
+      </c>
+      <c r="E76">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
       <c r="A77">
         <v>15.48</v>
       </c>
@@ -2205,8 +2993,14 @@
       <c r="C77" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="78" spans="1:3">
+      <c r="D77">
+        <v>5</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
       <c r="A78">
         <v>27.75</v>
       </c>
@@ -2216,8 +3010,14 @@
       <c r="C78" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="79" spans="1:3">
+      <c r="D78">
+        <v>5</v>
+      </c>
+      <c r="E78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
       <c r="A79">
         <v>26.73</v>
       </c>
@@ -2227,8 +3027,14 @@
       <c r="C79" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="80" spans="1:3">
+      <c r="D79">
+        <v>5</v>
+      </c>
+      <c r="E79">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5">
       <c r="A80">
         <v>6.81</v>
       </c>
@@ -2238,8 +3044,14 @@
       <c r="C80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:3">
+      <c r="D80">
+        <v>5</v>
+      </c>
+      <c r="E80">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5">
       <c r="A81">
         <v>1.84</v>
       </c>
@@ -2249,8 +3061,14 @@
       <c r="C81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:3">
+      <c r="D81">
+        <v>2</v>
+      </c>
+      <c r="E81">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5">
       <c r="A82">
         <v>6.84</v>
       </c>
@@ -2260,8 +3078,14 @@
       <c r="C82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:3">
+      <c r="D82">
+        <v>5</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5">
       <c r="A83">
         <v>6.56</v>
       </c>
@@ -2271,8 +3095,14 @@
       <c r="C83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:3">
+      <c r="D83">
+        <v>5</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5">
       <c r="A84">
         <v>1.32</v>
       </c>
@@ -2282,8 +3112,14 @@
       <c r="C84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:3">
+      <c r="D84">
+        <v>2</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5">
       <c r="A85">
         <v>1.82</v>
       </c>
@@ -2293,8 +3129,14 @@
       <c r="C85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5">
       <c r="A86">
         <v>1.62</v>
       </c>
@@ -2304,8 +3146,14 @@
       <c r="C86" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="87" spans="1:3">
+      <c r="D86">
+        <v>2</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5">
       <c r="A87">
         <v>1.9</v>
       </c>
@@ -2315,8 +3163,14 @@
       <c r="C87" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="88" spans="1:3">
+      <c r="D87">
+        <v>2</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5">
       <c r="A88">
         <v>2.13</v>
       </c>
@@ -2326,8 +3180,14 @@
       <c r="C88" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="89" spans="1:3">
+      <c r="D88">
+        <v>2</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5">
       <c r="A89">
         <v>27.48</v>
       </c>
@@ -2337,8 +3197,14 @@
       <c r="C89" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="90" spans="1:3">
+      <c r="D89">
+        <v>5</v>
+      </c>
+      <c r="E89">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5">
       <c r="A90">
         <v>13.51</v>
       </c>
@@ -2348,8 +3214,14 @@
       <c r="C90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:3">
+      <c r="D90">
+        <v>5</v>
+      </c>
+      <c r="E90">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5">
       <c r="A91">
         <v>18.03</v>
       </c>
@@ -2359,8 +3231,14 @@
       <c r="C91" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
+      <c r="D91">
+        <v>5</v>
+      </c>
+      <c r="E91">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
       <c r="A92">
         <v>17.170000000000002</v>
       </c>
@@ -2370,8 +3248,14 @@
       <c r="C92" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
+      <c r="D92">
+        <v>5</v>
+      </c>
+      <c r="E92">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
       <c r="A93">
         <v>21.5</v>
       </c>
@@ -2381,8 +3265,14 @@
       <c r="C93" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:3">
+      <c r="D93">
+        <v>5</v>
+      </c>
+      <c r="E93">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5">
       <c r="A94">
         <v>15.95</v>
       </c>
@@ -2392,8 +3282,14 @@
       <c r="C94" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="95" spans="1:3">
+      <c r="D94">
+        <v>5</v>
+      </c>
+      <c r="E94">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5">
       <c r="A95">
         <v>17.809999999999999</v>
       </c>
@@ -2403,8 +3299,14 @@
       <c r="C95" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:3">
+      <c r="D95">
+        <v>5</v>
+      </c>
+      <c r="E95">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
       <c r="A96">
         <v>24.02</v>
       </c>
@@ -2414,8 +3316,14 @@
       <c r="C96" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="97" spans="1:3">
+      <c r="D96">
+        <v>5</v>
+      </c>
+      <c r="E96">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5">
       <c r="A97">
         <v>24.22</v>
       </c>
@@ -2425,8 +3333,14 @@
       <c r="C97" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:3">
+      <c r="D97">
+        <v>5</v>
+      </c>
+      <c r="E97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5">
       <c r="A98">
         <v>21.72</v>
       </c>
@@ -2436,8 +3350,14 @@
       <c r="C98" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="99" spans="1:3">
+      <c r="D98">
+        <v>5</v>
+      </c>
+      <c r="E98">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5">
       <c r="A99">
         <v>23.51</v>
       </c>
@@ -2447,8 +3367,14 @@
       <c r="C99" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="100" spans="1:3">
+      <c r="D99">
+        <v>5</v>
+      </c>
+      <c r="E99">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5">
       <c r="A100">
         <v>26.39</v>
       </c>
@@ -2458,8 +3384,14 @@
       <c r="C100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:3">
+      <c r="D100">
+        <v>5</v>
+      </c>
+      <c r="E100">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5">
       <c r="A101">
         <v>0.87</v>
       </c>
@@ -2469,8 +3401,14 @@
       <c r="C101" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="102" spans="1:3">
+      <c r="D101">
+        <v>2</v>
+      </c>
+      <c r="E101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5">
       <c r="A102">
         <v>26.67</v>
       </c>
@@ -2480,8 +3418,14 @@
       <c r="C102" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="103" spans="1:3">
+      <c r="D102">
+        <v>5</v>
+      </c>
+      <c r="E102">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5">
       <c r="A103">
         <v>16.22</v>
       </c>
@@ -2491,8 +3435,14 @@
       <c r="C103" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="104" spans="1:3">
+      <c r="D103">
+        <v>5</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5">
       <c r="A104">
         <v>28.03</v>
       </c>
@@ -2502,8 +3452,14 @@
       <c r="C104" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="105" spans="1:3">
+      <c r="D104">
+        <v>5</v>
+      </c>
+      <c r="E104">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5">
       <c r="A105">
         <v>27.34</v>
       </c>
@@ -2513,8 +3469,14 @@
       <c r="C105" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
+      <c r="D105">
+        <v>5</v>
+      </c>
+      <c r="E105">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5">
       <c r="A106">
         <v>1.84</v>
       </c>
@@ -2524,8 +3486,14 @@
       <c r="C106" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
+      <c r="D106">
+        <v>5</v>
+      </c>
+      <c r="E106">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5">
       <c r="A107">
         <v>1.45</v>
       </c>
@@ -2535,8 +3503,14 @@
       <c r="C107" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:3">
+      <c r="D107">
+        <v>2</v>
+      </c>
+      <c r="E107">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5">
       <c r="A108">
         <v>3.37</v>
       </c>
@@ -2546,8 +3520,14 @@
       <c r="C108" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:3">
+      <c r="D108">
+        <v>5</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5">
       <c r="A109">
         <v>3.12</v>
       </c>
@@ -2557,8 +3537,14 @@
       <c r="C109" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="D109">
+        <v>5</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5">
       <c r="A110">
         <v>1.08</v>
       </c>
@@ -2568,8 +3554,14 @@
       <c r="C110" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:3">
+      <c r="D110">
+        <v>2</v>
+      </c>
+      <c r="E110">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5">
       <c r="A111">
         <v>1.56</v>
       </c>
@@ -2579,8 +3571,14 @@
       <c r="C111" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="112" spans="1:3">
+      <c r="D111">
+        <v>2</v>
+      </c>
+      <c r="E111">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5">
       <c r="A112">
         <v>1.24</v>
       </c>
@@ -2590,8 +3588,14 @@
       <c r="C112" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="113" spans="1:3">
+      <c r="D112">
+        <v>2</v>
+      </c>
+      <c r="E112">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5">
       <c r="A113">
         <v>1.37</v>
       </c>
@@ -2601,8 +3605,14 @@
       <c r="C113" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="114" spans="1:3">
+      <c r="D113">
+        <v>2</v>
+      </c>
+      <c r="E113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5">
       <c r="A114">
         <v>1.52</v>
       </c>
@@ -2612,8 +3622,14 @@
       <c r="C114" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="115" spans="1:3">
+      <c r="D114">
+        <v>2</v>
+      </c>
+      <c r="E114">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5">
       <c r="A115">
         <v>27.9</v>
       </c>
@@ -2623,8 +3639,14 @@
       <c r="C115" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:3">
+      <c r="D115">
+        <v>5</v>
+      </c>
+      <c r="E115">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5">
       <c r="A116">
         <v>11.86</v>
       </c>
@@ -2634,8 +3656,14 @@
       <c r="C116" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="117" spans="1:3">
+      <c r="D116">
+        <v>5</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5">
       <c r="A117">
         <v>16.34</v>
       </c>
@@ -2645,8 +3673,14 @@
       <c r="C117" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="D117">
+        <v>5</v>
+      </c>
+      <c r="E117">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5">
       <c r="A118">
         <v>15.32</v>
       </c>
@@ -2656,8 +3690,14 @@
       <c r="C118" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:3">
+      <c r="D118">
+        <v>5</v>
+      </c>
+      <c r="E118">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5">
       <c r="A119">
         <v>20.54</v>
       </c>
@@ -2667,8 +3707,14 @@
       <c r="C119" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
+      <c r="D119">
+        <v>5</v>
+      </c>
+      <c r="E119">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
       <c r="A120">
         <v>13.71</v>
       </c>
@@ -2678,8 +3724,14 @@
       <c r="C120" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="D120">
+        <v>5</v>
+      </c>
+      <c r="E120">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5">
       <c r="A121">
         <v>16.920000000000002</v>
       </c>
@@ -2689,8 +3741,14 @@
       <c r="C121" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
+      <c r="D121">
+        <v>5</v>
+      </c>
+      <c r="E121">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5">
       <c r="A122">
         <v>22.46</v>
       </c>
@@ -2700,8 +3758,14 @@
       <c r="C122" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="123" spans="1:3">
+      <c r="D122">
+        <v>5</v>
+      </c>
+      <c r="E122">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5">
       <c r="A123">
         <v>23.16</v>
       </c>
@@ -2711,8 +3775,14 @@
       <c r="C123" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="124" spans="1:3">
+      <c r="D123">
+        <v>5</v>
+      </c>
+      <c r="E123">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5">
       <c r="A124">
         <v>20.440000000000001</v>
       </c>
@@ -2722,8 +3792,14 @@
       <c r="C124" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
+      <c r="D124">
+        <v>5</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5">
       <c r="A125">
         <v>22.93</v>
       </c>
@@ -2733,8 +3809,14 @@
       <c r="C125" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="126" spans="1:3">
+      <c r="D125">
+        <v>5</v>
+      </c>
+      <c r="E125">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5">
       <c r="A126">
         <v>26.3</v>
       </c>
@@ -2744,8 +3826,14 @@
       <c r="C126" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="127" spans="1:3">
+      <c r="D126">
+        <v>5</v>
+      </c>
+      <c r="E126">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5">
       <c r="A127">
         <v>0.87</v>
       </c>
@@ -2755,8 +3843,14 @@
       <c r="C127" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="128" spans="1:3">
+      <c r="D127">
+        <v>2</v>
+      </c>
+      <c r="E127">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5">
       <c r="A128">
         <v>25.59</v>
       </c>
@@ -2766,8 +3860,14 @@
       <c r="C128" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="129" spans="1:3">
+      <c r="D128">
+        <v>5</v>
+      </c>
+      <c r="E128">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5">
       <c r="A129">
         <v>14.05</v>
       </c>
@@ -2777,8 +3877,14 @@
       <c r="C129" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="130" spans="1:3">
+      <c r="D129">
+        <v>5</v>
+      </c>
+      <c r="E129">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5">
       <c r="A130">
         <v>27.43</v>
       </c>
@@ -2788,8 +3894,14 @@
       <c r="C130" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="131" spans="1:3">
+      <c r="D130">
+        <v>5</v>
+      </c>
+      <c r="E130">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5">
       <c r="A131">
         <v>26.42</v>
       </c>
@@ -2798,6 +3910,12 @@
       </c>
       <c r="C131" s="2" t="s">
         <v>9</v>
+      </c>
+      <c r="D131">
+        <v>5</v>
+      </c>
+      <c r="E131">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
